--- a/dataset/index_pl.xlsx
+++ b/dataset/index_pl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Недостаточно данных для расчета риска просрочки платежа</t>
+          <t>Низкий риск просрочки платежа</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Низкий риск просрочки платежа</t>
+          <t>Высокий риск просрочки платежа</t>
         </is>
       </c>
     </row>
@@ -465,16 +465,6 @@
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>Высокий риск просрочки платежа</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>Средний риск просрочки платежа</t>
         </is>
